--- a/BOM_split_flap.xlsx
+++ b/BOM_split_flap.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greger/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greger/Documents/GitHub/Split-flap-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F45DC-34AC-494C-AD46-380AB1E2B0EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813882FF-EAF3-044D-89C4-9360632A0288}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="7860" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
+    <workbookView xWindow="7780" yWindow="7860" windowWidth="28240" windowHeight="17560" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_unit" sheetId="1" r:id="rId1"/>
     <sheet name="BOM_master" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
   <si>
     <t>Part</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>5V for Arduino and for DC-DC 3,3V</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -822,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EDE7C7-D703-DB46-A918-9C8216A7323C}">
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1440,6 +1443,11 @@
         <v>14.176999999999998</v>
       </c>
     </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G27" r:id="rId1" xr:uid="{B90CE649-AEE8-724E-A625-540E6C2BC182}"/>
@@ -1452,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB4D0F2-35AD-8045-B5D6-F9E321AAFA30}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/BOM_split_flap.xlsx
+++ b/BOM_split_flap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greger/Documents/GitHub/Split-flap-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813882FF-EAF3-044D-89C4-9360632A0288}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C35411-6DDB-324A-B2D2-FE2C015D3B47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7780" yWindow="7860" windowWidth="28240" windowHeight="17560" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
   <si>
     <t>Part</t>
   </si>
@@ -184,18 +184,12 @@
     <t>Front-Panel</t>
   </si>
   <si>
-    <t>Back-Panel</t>
-  </si>
-  <si>
     <t>Motorblock</t>
   </si>
   <si>
     <t>front_panel.gcode</t>
   </si>
   <si>
-    <t>back_panel.gcode</t>
-  </si>
-  <si>
     <t>Left-Panel</t>
   </si>
   <si>
@@ -328,9 +322,6 @@
     <t>https://www.ebay.de/itm/25-PT-Schrauben-f-Kunststoffe-Linsenkopf-Torx-A2-2-5X6-Thermoplaste-rostfrei/401004178857?hash=item5d5db62da9:g:TlIAAOSwAOxbrfNt:rk:3:pf:0</t>
   </si>
   <si>
-    <t>Screws to fix the PCBA on the backside</t>
-  </si>
-  <si>
     <t>Screw PT K25, 6</t>
   </si>
   <si>
@@ -418,7 +409,13 @@
     <t>5V for Arduino and for DC-DC 3,3V</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Rear-Panel</t>
+  </si>
+  <si>
+    <t>rear_panel.gcode</t>
+  </si>
+  <si>
+    <t>Screws to fix the PCBA on the rear side</t>
   </si>
 </sst>
 </file>
@@ -825,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EDE7C7-D703-DB46-A918-9C8216A7323C}">
-  <dimension ref="B2:H30"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,10 +908,10 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -926,10 +923,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -957,13 +954,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -972,21 +969,21 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -995,7 +992,7 @@
         <v>0.13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -1114,10 +1111,10 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
@@ -1129,10 +1126,10 @@
         <v>0.06</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -1155,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -1178,7 +1175,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -1201,18 +1198,18 @@
         <v>47</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="3">
         <v>15</v>
@@ -1224,18 +1221,18 @@
         <v>50</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
@@ -1244,10 +1241,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -1255,7 +1252,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -1267,18 +1264,18 @@
         <v>0.17</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -1290,18 +1287,18 @@
         <v>0.19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
@@ -1313,18 +1310,18 @@
         <v>0.34</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -1336,18 +1333,18 @@
         <v>0.32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -1359,18 +1356,18 @@
         <v>0.22</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
@@ -1382,18 +1379,18 @@
         <v>0.27</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>12</v>
@@ -1405,18 +1402,18 @@
         <v>0.51</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>12</v>
@@ -1428,24 +1425,19 @@
         <v>0.1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F29" s="2">
         <f>SUMPRODUCT(E3:E27,F3:F27)</f>
         <v>14.176999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1516,18 +1508,18 @@
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1536,18 +1528,18 @@
         <v>1.23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1559,10 +1551,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -1585,18 +1577,18 @@
         <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1605,21 +1597,21 @@
         <v>1.4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -1628,18 +1620,18 @@
         <v>0.09</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
@@ -1651,18 +1643,18 @@
         <v>0.08</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1674,10 +1666,10 @@
         <v>0.08</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -1723,7 +1715,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -1746,12 +1738,12 @@
         <v>47</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2">
         <f>SUMPRODUCT(E3:E13,F3:F13)</f>

--- a/BOM_split_flap.xlsx
+++ b/BOM_split_flap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greger/Documents/GitHub/Split-flap-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C35411-6DDB-324A-B2D2-FE2C015D3B47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5FFEE5-478D-D348-B724-38C4592624EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7780" yWindow="7860" windowWidth="28240" windowHeight="17560" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
   <si>
     <t>Part</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Screws to fix the PCBA on the rear side</t>
+  </si>
+  <si>
+    <t>Tets</t>
   </si>
 </sst>
 </file>
@@ -822,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EDE7C7-D703-DB46-A918-9C8216A7323C}">
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1438,6 +1441,11 @@
       <c r="F29" s="2">
         <f>SUMPRODUCT(E3:E27,F3:F27)</f>
         <v>14.176999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/BOM_split_flap.xlsx
+++ b/BOM_split_flap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greger/Documents/GitHub/Split-flap-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5FFEE5-478D-D348-B724-38C4592624EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1168D0-CD64-4944-B2C4-535E41C2C00D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7780" yWindow="7860" windowWidth="28240" windowHeight="17560" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
   <si>
     <t>Part</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>Screws to fix the PCBA on the rear side</t>
-  </si>
-  <si>
-    <t>Tets</t>
   </si>
 </sst>
 </file>
@@ -825,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EDE7C7-D703-DB46-A918-9C8216A7323C}">
-  <dimension ref="B2:H30"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,11 +1438,6 @@
       <c r="F29" s="2">
         <f>SUMPRODUCT(E3:E27,F3:F27)</f>
         <v>14.176999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/BOM_split_flap.xlsx
+++ b/BOM_split_flap.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greger/Documents/GitHub/Split-flap-display/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waltergreger/Documents/GitHub/Split-flap-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1168D0-CD64-4944-B2C4-535E41C2C00D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2CCEB5-2ADA-1A49-8BD8-DA5723290B97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="7860" windowWidth="28240" windowHeight="17560" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="28240" windowHeight="16480" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_unit" sheetId="1" r:id="rId1"/>
     <sheet name="BOM_master" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
   <si>
     <t>Part</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Connector to I2C</t>
   </si>
   <si>
-    <t>JST PH3P ST</t>
-  </si>
-  <si>
     <t>Connector female</t>
   </si>
   <si>
@@ -133,18 +130,6 @@
     <t>JST PH2P ST</t>
   </si>
   <si>
-    <t>https://www.reichelt.de/jst-stiftleiste-gerade-1x3-polig-ph-jst-ph3p-st-p185050.html?&amp;trstct=pos_0</t>
-  </si>
-  <si>
-    <t>Connector Hall-Sensor</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/jst-buchsengehaeuse-1x3-polig-ph-jst-ph3p-bu-p185042.html?&amp;trstct=pos_5</t>
-  </si>
-  <si>
-    <t>JST PH3P BU</t>
-  </si>
-  <si>
     <t>Connector Stepmotor</t>
   </si>
   <si>
@@ -280,9 +265,6 @@
     <t>https://www.reichelt.de/jst-crimpkontakt-buchse-ph-jst-ph-ckb-p185071.html?&amp;trstct=pos_0</t>
   </si>
   <si>
-    <t>Crimp for Connectors</t>
-  </si>
-  <si>
     <t>Connector to Stepmotor</t>
   </si>
   <si>
@@ -416,6 +398,72 @@
   </si>
   <si>
     <t>Screws to fix the PCBA on the rear side</t>
+  </si>
+  <si>
+    <t>Connector Hall-Sensor and Thermistor</t>
+  </si>
+  <si>
+    <t>JST XH5P BU</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/jst-buchsengehaeuse-1x5-polig-xh-jst-xh5p-bu-p185088.html?&amp;trstct=pos_2</t>
+  </si>
+  <si>
+    <t>Crimp for XH</t>
+  </si>
+  <si>
+    <t>JST XH CKB JST</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/jst-crimpkontakt-buchse-xh-jst-xh-ckb-p185091.html?&amp;trstct=lsbght_sldr::185088</t>
+  </si>
+  <si>
+    <t>Crimp for XH connectors</t>
+  </si>
+  <si>
+    <t>Crimp for PH connectors</t>
+  </si>
+  <si>
+    <t>Resistor 100k</t>
+  </si>
+  <si>
+    <t>100k, 0.6W</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/duennschichtwiderstand-axial-0-6-w-100-kohm-1-vi-mbb02070c1003-p233667.html?&amp;trstct=pos_0</t>
+  </si>
+  <si>
+    <t>Reference resistor for thermistor</t>
+  </si>
+  <si>
+    <t>Thermistor 100K; B3950K</t>
+  </si>
+  <si>
+    <t>NTC Thermistor 100k B3950K</t>
+  </si>
+  <si>
+    <t>Thermistor for temperature measurement</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/i/112050606664?chn=ps</t>
+  </si>
+  <si>
+    <t>Capacitor 100nF</t>
+  </si>
+  <si>
+    <t>X7R-5 100N</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/vielschicht-keramikkondensator-100n-10-x7r-5-100n-p22865.html?&amp;trstct=pos_0</t>
+  </si>
+  <si>
+    <t>Capacitor to stabalize supply voltage</t>
+  </si>
+  <si>
+    <t>DC-DC converter 5V</t>
+  </si>
+  <si>
+    <t>Magnet to calibrate rotation</t>
   </si>
 </sst>
 </file>
@@ -822,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EDE7C7-D703-DB46-A918-9C8216A7323C}">
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,10 +956,10 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -923,10 +971,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -954,13 +1002,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -969,21 +1017,21 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -992,9 +1040,11 @@
         <v>0.13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
@@ -1015,11 +1065,13 @@
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -1042,10 +1094,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -1057,7 +1109,7 @@
         <v>0.1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>29</v>
@@ -1065,10 +1117,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -1077,21 +1129,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>27</v>
@@ -1100,159 +1152,159 @@
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>5.6000000000000001E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -1261,67 +1313,67 @@
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4">
-        <v>0.19</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4">
-        <v>0.34</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -1330,21 +1382,21 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -1353,21 +1405,21 @@
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
@@ -1376,21 +1428,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>12</v>
@@ -1399,50 +1451,119 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3">
         <v>45</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F30" s="4">
         <v>0.1</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="2">
-        <f>SUMPRODUCT(E3:E27,F3:F27)</f>
-        <v>14.176999999999998</v>
+      <c r="G30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="2">
+        <f>SUMPRODUCT(E3:E30,F3:F30)</f>
+        <v>14.466999999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" xr:uid="{B90CE649-AEE8-724E-A625-540E6C2BC182}"/>
+    <hyperlink ref="G30" r:id="rId1" xr:uid="{B90CE649-AEE8-724E-A625-540E6C2BC182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1450,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB4D0F2-35AD-8045-B5D6-F9E321AAFA30}">
-  <dimension ref="B2:H15"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1508,18 +1629,18 @@
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1528,18 +1649,18 @@
         <v>1.23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1551,10 +1672,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -1577,18 +1698,18 @@
         <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1597,21 +1718,21 @@
         <v>1.4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -1620,18 +1741,18 @@
         <v>0.09</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
@@ -1643,18 +1764,18 @@
         <v>0.08</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1666,93 +1787,117 @@
         <v>0.08</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
         <v>0.1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="2">
-        <f>SUMPRODUCT(E3:E13,F3:F13)</f>
-        <v>6.9</v>
+      <c r="F16" s="2">
+        <f>SUMPRODUCT(E3:E14,F3:F14)</f>
+        <v>7.2000000000000011</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" display="https://www.aliexpress.com/item/Free-Shipping-ESP8266-ESP-01S-ESP-01-Wireless-Transceiver-Module-With-Breakout-Breadboard-Adapter/32770549691.html?spm=2114.search0104.3.1.2d683987PIWhSk&amp;ws_ab_test=searchweb0_0,searchweb201602_5_10065_10068_10547_319_317_10548_10696_10084_453_10083_454_10618_10304_10307_10820_10821_537_10302_536_10902_10843_10059_10884_10887_321_322_10103,searchweb201603_59,ppcSwitch_0&amp;algo_expid=1a183aae-683f-42c9-ba39-93ddeb1c2069-0&amp;algo_pvid=1a183aae-683f-42c9-ba39-93ddeb1c2069&amp;transAbTest=ae803_4" xr:uid="{5D4CB50F-3777-9948-BEAE-4E64F6129207}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{833BB1E8-A4DF-034F-BE29-BC4F08DA176C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM_split_flap.xlsx
+++ b/BOM_split_flap.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waltergreger/Documents/GitHub/Split-flap-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2CCEB5-2ADA-1A49-8BD8-DA5723290B97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FEDCE4-0B94-FD4E-8A83-64DB4BB0FBBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="28240" windowHeight="16480" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="16440" activeTab="1" xr2:uid="{06292142-01F6-6F46-85E5-F17A49ACAEDE}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_unit" sheetId="1" r:id="rId1"/>
     <sheet name="BOM_master" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t>Part</t>
   </si>
@@ -352,9 +352,6 @@
     <t>https://www.reichelt.de/widerstand-metallschicht-4-75-kohm-0207-0-6-w-1-metall-4-75k-p11786.html?</t>
   </si>
   <si>
-    <t>Part of the 5V/3,3V bidirectional level shifter; Pull-up for I2C</t>
-  </si>
-  <si>
     <t>Resistor 10k 0207</t>
   </si>
   <si>
@@ -464,6 +461,18 @@
   </si>
   <si>
     <t>Magnet to calibrate rotation</t>
+  </si>
+  <si>
+    <t>Pull-up for I2C</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/widerstand-metallschicht-2-00-kohm-0207-0-6-w-1--metall-2-00k-p11578.html?&amp;trstct=pos_0&amp;nbc=1</t>
+  </si>
+  <si>
+    <t>2k, 0207</t>
+  </si>
+  <si>
+    <t>Resistor 2k 0207</t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,6 +510,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -544,19 +561,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -872,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EDE7C7-D703-DB46-A918-9C8216A7323C}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1043,7 +1063,7 @@
         <v>72</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -1066,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -1120,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -1132,10 +1152,10 @@
         <v>0.04</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -1158,15 +1178,15 @@
         <v>35</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
@@ -1178,10 +1198,10 @@
         <v>0.03</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -1204,7 +1224,7 @@
         <v>78</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -1278,10 +1298,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -1293,18 +1313,18 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -1316,10 +1336,10 @@
         <v>0.04</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -1365,7 +1385,7 @@
         <v>91</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -1393,10 +1413,10 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -1571,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB4D0F2-35AD-8045-B5D6-F9E321AAFA30}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1629,18 +1649,18 @@
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1649,10 +1669,10 @@
         <v>1.23</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -1660,7 +1680,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1675,7 +1695,7 @@
         <v>89</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -1698,7 +1718,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -1758,73 +1778,71 @@
         <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <v>0.08</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>107</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
         <v>0.08</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>111</v>
+      <c r="G10" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -1833,41 +1851,41 @@
         <v>0.1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -1876,28 +1894,53 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="2">
-        <f>SUMPRODUCT(E3:E14,F3:F14)</f>
+      <c r="F17" s="2">
+        <f>SUMPRODUCT(E3:E15,F3:F15)</f>
         <v>7.2000000000000011</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" display="https://www.aliexpress.com/item/Free-Shipping-ESP8266-ESP-01S-ESP-01-Wireless-Transceiver-Module-With-Breakout-Breadboard-Adapter/32770549691.html?spm=2114.search0104.3.1.2d683987PIWhSk&amp;ws_ab_test=searchweb0_0,searchweb201602_5_10065_10068_10547_319_317_10548_10696_10084_453_10083_454_10618_10304_10307_10820_10821_537_10302_536_10902_10843_10059_10884_10887_321_322_10103,searchweb201603_59,ppcSwitch_0&amp;algo_expid=1a183aae-683f-42c9-ba39-93ddeb1c2069-0&amp;algo_pvid=1a183aae-683f-42c9-ba39-93ddeb1c2069&amp;transAbTest=ae803_4" xr:uid="{5D4CB50F-3777-9948-BEAE-4E64F6129207}"/>
-    <hyperlink ref="G11" r:id="rId2" xr:uid="{833BB1E8-A4DF-034F-BE29-BC4F08DA176C}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{833BB1E8-A4DF-034F-BE29-BC4F08DA176C}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{9B8D3478-895C-C44E-9B07-FDE837855793}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{0CAB02FE-BB88-164C-BCD5-AE63B2741733}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
